--- a/1. Doble Rendija/Data/data_doble_laser.xlsx
+++ b/1. Doble Rendija/Data/data_doble_laser.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniandes-my.sharepoint.com/personal/s_martinezc234_uniandes_edu_co/Documents/6to Semestre/Laboratorio Intermedio/Laboratorios/Semana 1- Doble Rendija/Datos Y Análisis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\santi\Documents\GitHub\Intermedio\1. Doble Rendija\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="119" documentId="11_AD4D2F04E46CFB4ACB3E20CFFD17DF80683EDF22" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{76704F64-5AB4-4F4C-BC72-B6BFDE558B67}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3714A90-74A9-4BB4-8A88-0A147950DC2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -82,7 +82,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.000000"/>
-    <numFmt numFmtId="167" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -127,7 +127,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -227,9 +227,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:v>V(V) vs. x'(um)</c:v>
-          </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
               <a:noFill/>
@@ -5140,10 +5137,10 @@
           </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>análisis!$C$2:$C$469</c:f>
+              <c:f>análisis!$C$2:$C$402</c:f>
               <c:numCache>
                 <c:formatCode>0.000000</c:formatCode>
-                <c:ptCount val="468"/>
+                <c:ptCount val="401"/>
                 <c:pt idx="0">
                   <c:v>-5.8599999999999998E-3</c:v>
                 </c:pt>
@@ -6352,10 +6349,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>análisis!$D$2:$D$469</c:f>
+              <c:f>análisis!$D$2:$D$402</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="468"/>
+                <c:ptCount val="401"/>
                 <c:pt idx="0">
                   <c:v>1.9300000000000001E-2</c:v>
                 </c:pt>
@@ -7723,6 +7720,20 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -15988,7 +15999,7 @@
   <dimension ref="A1:T469"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T6" sqref="T6"/>
+      <selection activeCell="V12" sqref="V12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
